--- a/downloaded_files/EECS306_Tutorial-35318.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35318.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -114,15 +114,6 @@
     <x:t>Hamza Ahmed Mohamed Mounir ElGohary</x:t>
   </x:si>
   <x:si>
-    <x:t>1210226</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زياد احمد محمد مهدى عصر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ziad Ahmed Mohamed Mahdy Asar</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220243</x:t>
   </x:si>
   <x:si>
@@ -247,15 +238,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ramadan Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210303</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مريم مصطفى عمر حبيب</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mariam Mostafa Omar Habeb</x:t>
   </x:si>
   <x:si>
     <x:t>4220143</x:t>
@@ -464,7 +446,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -764,7 +746,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1143,7 +1125,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4145456019</x:v>
+        <x:v>45906.6649866551</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1175,7 +1157,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6649866551</x:v>
+        <x:v>45906.4152021991</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1207,7 +1189,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4152021991</x:v>
+        <x:v>45906.66740625</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1239,7 +1221,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.66740625</x:v>
+        <x:v>45906.4148769676</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1271,7 +1253,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4148769676</x:v>
+        <x:v>45906.664772338</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1303,7 +1285,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.664772338</x:v>
+        <x:v>45906.4143725694</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1335,7 +1317,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4143725694</x:v>
+        <x:v>45906.6647540857</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1367,7 +1349,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6647540857</x:v>
+        <x:v>45906.4154020023</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1399,7 +1381,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4154020023</x:v>
+        <x:v>45906.6643601042</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1431,7 +1413,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6643601042</x:v>
+        <x:v>45906.4596141551</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1463,7 +1445,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4596141551</x:v>
+        <x:v>45912.8656815162</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1495,7 +1477,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.8656815162</x:v>
+        <x:v>45906.6660294792</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1527,7 +1509,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6660294792</x:v>
+        <x:v>45906.4143330671</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1559,7 +1541,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4143330671</x:v>
+        <x:v>45906.4378518518</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1587,11 +1569,9 @@
       <x:c r="C25" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
+      <x:c r="D25" s="2" t="s"/>
       <x:c r="E25" s="3">
-        <x:v>45906.4378518518</x:v>
+        <x:v>45906.4227425116</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1614,16 +1594,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="C26" s="2" t="s">
+      <x:c r="D26" s="2" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4146067477</x:v>
+        <x:v>45906.6651695602</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1646,14 +1626,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="C27" s="2" t="s">
+      <x:c r="D27" s="2" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s"/>
       <x:c r="E27" s="3">
-        <x:v>45906.4227425116</x:v>
+        <x:v>45912.8997699884</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1685,7 +1667,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6651695602</x:v>
+        <x:v>45906.6647323727</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1717,7 +1699,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45912.8997699884</x:v>
+        <x:v>45906.6660860764</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1745,11 +1727,9 @@
       <x:c r="C30" s="2" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
+      <x:c r="D30" s="2" t="s"/>
       <x:c r="E30" s="3">
-        <x:v>45906.6647323727</x:v>
+        <x:v>45906.4454012384</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1772,16 +1752,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="C31" s="2" t="s">
+      <x:c r="D31" s="2" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6660860764</x:v>
+        <x:v>45906.6647606134</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1804,14 +1784,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="C32" s="2" t="s">
+      <x:c r="D32" s="2" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="D32" s="2" t="s"/>
       <x:c r="E32" s="3">
-        <x:v>45906.4454012384</x:v>
+        <x:v>45912.8600202199</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1843,7 +1825,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6647606134</x:v>
+        <x:v>45912.8596912037</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1875,7 +1857,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45912.8600202199</x:v>
+        <x:v>45906.4366183681</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1907,7 +1889,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45912.8596912037</x:v>
+        <x:v>45906.6649261921</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1924,70 +1906,6 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45906.4366183681</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20">
-      <x:c r="A37" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="E37" s="3">
-        <x:v>45906.6649261921</x:v>
-      </x:c>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="2" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="2" t="s"/>
-      <x:c r="Q37" s="2" t="s"/>
-      <x:c r="R37" s="2" t="s"/>
-      <x:c r="S37" s="2" t="s"/>
-      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS306_Tutorial-35318.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35318.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -105,6 +105,15 @@
     <x:t>Engy Wael Mostafa Sayed</x:t>
   </x:si>
   <x:si>
+    <x:t>1220038</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ايه رضا علي محمد سليمان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Aya Reda Ali Mohamed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220169</x:t>
   </x:si>
   <x:si>
@@ -231,6 +240,15 @@
     <x:t>Mohamed Ahmed Ibrahim Sobh</x:t>
   </x:si>
   <x:si>
+    <x:t>1220140</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد احمد سيد محمد عوض</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohammed ahmed sayed mohamed awad</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210414</x:t>
   </x:si>
   <x:si>
@@ -286,15 +304,6 @@
   </x:si>
   <x:si>
     <x:t>نورهان بهاء على عبدالرحمن احمد شاهين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220212</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف باسم لمعي جندي جرجس</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Bassem Lamey Gindy</x:t>
   </x:si>
   <x:si>
     <x:t>1230133</x:t>
@@ -446,7 +455,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -746,7 +755,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1093,7 +1102,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.4154951389</x:v>
+        <x:v>45927.4147096412</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1125,7 +1134,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6649866551</x:v>
+        <x:v>45909.4154951389</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1157,7 +1166,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4152021991</x:v>
+        <x:v>45906.6649866551</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1189,7 +1198,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.66740625</x:v>
+        <x:v>45906.4152021991</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1221,7 +1230,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4148769676</x:v>
+        <x:v>45906.66740625</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1253,7 +1262,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.664772338</x:v>
+        <x:v>45906.4148769676</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1285,7 +1294,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4143725694</x:v>
+        <x:v>45906.664772338</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1317,7 +1326,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6647540857</x:v>
+        <x:v>45906.4143725694</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1349,7 +1358,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4154020023</x:v>
+        <x:v>45906.6647540857</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1381,7 +1390,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6643601042</x:v>
+        <x:v>45906.4154020023</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1413,7 +1422,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4596141551</x:v>
+        <x:v>45906.6643601042</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1445,7 +1454,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.8656815162</x:v>
+        <x:v>45906.4596141551</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1477,7 +1486,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6660294792</x:v>
+        <x:v>45912.8656815162</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1509,7 +1518,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4143330671</x:v>
+        <x:v>45906.6660294792</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1541,7 +1550,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4378518518</x:v>
+        <x:v>45906.4143330671</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1569,9 +1578,11 @@
       <x:c r="C25" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="D25" s="2" t="s"/>
+      <x:c r="D25" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4227425116</x:v>
+        <x:v>45927.4148728356</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1594,16 +1605,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6651695602</x:v>
+        <x:v>45906.4378518518</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1626,16 +1637,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
         <x:v>81</x:v>
       </x:c>
+      <x:c r="D27" s="2" t="s"/>
       <x:c r="E27" s="3">
-        <x:v>45912.8997699884</x:v>
+        <x:v>45906.4227425116</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1667,7 +1676,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6647323727</x:v>
+        <x:v>45906.6651695602</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1699,7 +1708,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6660860764</x:v>
+        <x:v>45912.8997699884</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1727,9 +1736,11 @@
       <x:c r="C30" s="2" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s"/>
+      <x:c r="D30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4454012384</x:v>
+        <x:v>45906.6647323727</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1752,16 +1763,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D31" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.6647606134</x:v>
+        <x:v>45906.6660860764</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1784,16 +1795,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
         <x:v>95</x:v>
       </x:c>
+      <x:c r="D32" s="2" t="s"/>
       <x:c r="E32" s="3">
-        <x:v>45912.8600202199</x:v>
+        <x:v>45906.4454012384</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1825,7 +1834,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45912.8596912037</x:v>
+        <x:v>45912.8600202199</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1857,7 +1866,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.4366183681</x:v>
+        <x:v>45912.8596912037</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1889,7 +1898,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6649261921</x:v>
+        <x:v>45906.4366183681</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1906,6 +1915,38 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45906.6649261921</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS306_Tutorial-35318.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35318.xlsx
@@ -279,7 +279,7 @@
     <x:t>مهند محمد فتحى محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohaned Mohammed fathy</x:t>
+    <x:t xml:space="preserve"> Mohaned Mohammed fathy Mohammed</x:t>
   </x:si>
   <x:si>
     <x:t>1210118</x:t>
